--- a/data/itest.xlsx
+++ b/data/itest.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2385" windowWidth="15525" windowHeight="8400" tabRatio="710" activeTab="1"/>
+    <workbookView xWindow="12180" yWindow="2385" windowWidth="15525" windowHeight="8400" tabRatio="710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="itest" sheetId="12" r:id="rId1"/>
     <sheet name="baidumap" sheetId="13" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId3"/>
+    <sheet name="p2c2" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>col1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,26 @@
   </si>
   <si>
     <t>hhhhhh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT0008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -734,12 +754,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/itest.xlsx
+++ b/data/itest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="2385" windowWidth="15525" windowHeight="8400" tabRatio="710" activeTab="2"/>
+    <workbookView xWindow="12180" yWindow="2385" windowWidth="15525" windowHeight="8400" tabRatio="710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="itest" sheetId="12" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>col1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,22 +148,6 @@
   </si>
   <si>
     <t>天津市第一中心医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasasas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wwwwwww</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qqqqqqq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hhhhhh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +651,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -681,7 +665,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -695,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -709,7 +693,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -756,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -767,27 +751,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/itest.xlsx
+++ b/data/itest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>col1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,22 @@
   </si>
   <si>
     <t>ffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市第二中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市第三中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市第四中心医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市第五中心医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +620,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,7 +667,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -665,7 +681,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -679,7 +695,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -693,7 +709,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
